--- a/DCISM_WBRMSystem/file/temp_inventory/LB 446 (124 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 446 (124 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 446</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -30416,7 +30416,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BeevhFTBgOLPvRCmbsEh2hiazbJ4OB3SfGZfsQ4sqJu3vf82PHxhKaON5UwRElIWcmKMFpJ8H/4IH8G4Ps4Zyw==" saltValue="HmUCrctnTV35j0KEFr5isw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u61jlTz19Xp8ajF9WRkVUwhHqEjaSaWRK7X+EFPegeF8X1rWXH8gb96LSIeFIfJ/Gowsmtzs5Skfbp0tPcxTEg==" saltValue="Fn7Q63NsjveA5/zyF0cY7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
